--- a/Candidate Locations.xlsx
+++ b/Candidate Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/MIT Dropbox/David Izrailov/MIT/Academics/Fall Sem/Optimization/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vkori/Documents/GitHub/Optimal-Placements-of-Rural-Mobile-Health-Clinics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F733F8-78B9-E84A-9A67-1E9553499006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F60C6C-F01F-834A-82DA-09FE5379074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{FD4A34CF-31D9-714A-AD4F-0F91CCE345E9}"/>
+    <workbookView xWindow="2600" yWindow="3020" windowWidth="28040" windowHeight="15800" xr2:uid="{FD4A34CF-31D9-714A-AD4F-0F91CCE345E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -344,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C953FF-AA81-6E44-BAB9-337A887AE3C3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4497F762-CA15-4C4F-87DF-22F4B18E4F9D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
